--- a/ProjectNonclassical-master/ComparePic.xlsx
+++ b/ProjectNonclassical-master/ComparePic.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Thickness</t>
   </si>
@@ -64,12 +64,27 @@
   <si>
     <t>err%</t>
   </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>h_d</t>
+  </si>
+  <si>
+    <t>h_mc</t>
+  </si>
+  <si>
+    <t>bins</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +120,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +188,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -180,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -198,6 +225,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,11 +1215,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1014476608"/>
-        <c:axId val="1014480416"/>
+        <c:axId val="-608101776"/>
+        <c:axId val="-607750672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1014476608"/>
+        <c:axId val="-608101776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,7 +1262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1014480416"/>
+        <c:crossAx val="-607750672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1236,7 +1270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1014480416"/>
+        <c:axId val="-607750672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +1321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1014476608"/>
+        <c:crossAx val="-608101776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2070,11 +2104,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="747276992"/>
-        <c:axId val="747286240"/>
+        <c:axId val="-607762096"/>
+        <c:axId val="-607761552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="747276992"/>
+        <c:axId val="-607762096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,7 +2151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="747286240"/>
+        <c:crossAx val="-607761552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2125,7 +2159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="747286240"/>
+        <c:axId val="-607761552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,7 +2210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="747276992"/>
+        <c:crossAx val="-607762096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3671,23 +3705,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S16"/>
+  <dimension ref="B2:AL16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>100</v>
       </c>
+      <c r="X2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="D3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3">
+        <v>0.02</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3">
+        <f>0.0005</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -3738,8 +3805,56 @@
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="8"/>
+      <c r="W4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>0.99</v>
       </c>
@@ -3750,14 +3865,14 @@
         <v>7.9962</v>
       </c>
       <c r="E5" s="3">
-        <f>ABS(D5-C5)/C5*100</f>
+        <f t="shared" ref="E5:E16" si="0">ABS(D5-C5)/C5*100</f>
         <v>6.5933027327381044</v>
       </c>
       <c r="F5" s="1">
         <v>7.9691999999999998</v>
       </c>
       <c r="G5" s="1">
-        <f>ABS(F5-C5)/C5*100</f>
+        <f t="shared" ref="G5:G16" si="1">ABS(F5-C5)/C5*100</f>
         <v>6.2333793724189599</v>
       </c>
       <c r="H5" s="9">
@@ -3767,14 +3882,14 @@
         <v>8.8570999999999902</v>
       </c>
       <c r="J5" s="3">
-        <f>ABS(I5-H5)/H5*100</f>
+        <f t="shared" ref="J5:J16" si="2">ABS(I5-H5)/H5*100</f>
         <v>7.9181060356797381</v>
       </c>
       <c r="K5" s="2">
         <v>8.8107000000000006</v>
       </c>
       <c r="L5" s="2">
-        <f>ABS(K5-H5)/H5*100</f>
+        <f t="shared" ref="L5:L16" si="3">ABS(K5-H5)/H5*100</f>
         <v>7.3527516736363578</v>
       </c>
       <c r="M5" s="9">
@@ -3794,8 +3909,54 @@
         <f>ABS(P5-M5)/M5*100</f>
         <v>2.3330023997903253</v>
       </c>
+      <c r="W5" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="X5" s="9">
+        <v>3.44127292149</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>3.5799999999999899</v>
+      </c>
+      <c r="Z5" s="16">
+        <f>ABS(Y5-X5)/X5*100</f>
+        <v>4.0312721970893239</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>3.45399999999999</v>
+      </c>
+      <c r="AB5" s="23">
+        <f>ABS(AA5-X5)/X5*100</f>
+        <v>0.36983635998505565</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>4.0196550360699996</v>
+      </c>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="16">
+        <f>ABS(AD5-AC5)/AC5*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="15">
+        <f>ABS(AF5-AC5)/AC5*100</f>
+        <v>100</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>3.67150881272</v>
+      </c>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="16">
+        <f t="shared" ref="AJ5:AJ15" si="4">ABS(AI5-AH5)/AH5*100</f>
+        <v>100</v>
+      </c>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="15">
+        <f t="shared" ref="AL5:AL15" si="5">ABS(AK5-AH5)/AH5*100</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>0.95</v>
       </c>
@@ -3806,14 +3967,14 @@
         <v>3.2408999999999999</v>
       </c>
       <c r="E6" s="10">
-        <f>ABS(D6-C6)/C6*100</f>
+        <f t="shared" si="0"/>
         <v>1.221036335506767</v>
       </c>
       <c r="F6" s="1">
         <v>3.2353499999999902</v>
       </c>
       <c r="G6" s="13">
-        <f>ABS(F6-C6)/C6*100</f>
+        <f t="shared" si="1"/>
         <v>1.0476965991177869</v>
       </c>
       <c r="H6" s="9">
@@ -3823,14 +3984,14 @@
         <v>3.9263999999999899</v>
       </c>
       <c r="J6" s="16">
-        <f>ABS(I6-H6)/H6*100</f>
+        <f t="shared" si="2"/>
         <v>3.5163668933497378</v>
       </c>
       <c r="K6" s="2">
         <v>3.9151999999999898</v>
       </c>
       <c r="L6" s="15">
-        <f>ABS(K6-H6)/H6*100</f>
+        <f t="shared" si="3"/>
         <v>3.2210879331812556</v>
       </c>
       <c r="M6" s="9">
@@ -3840,18 +4001,64 @@
         <v>3.6809999999999898</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:O16" si="0">ABS(N6-M6)/M6*100</f>
+        <f t="shared" ref="O6:O16" si="6">ABS(N6-M6)/M6*100</f>
         <v>7.5355722036995783</v>
       </c>
       <c r="P6" s="2">
         <v>3.6345000000000001</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" ref="Q6:Q16" si="1">ABS(P6-M6)/M6*100</f>
+        <f t="shared" ref="Q6:Q16" si="7">ABS(P6-M6)/M6*100</f>
         <v>6.1771358800182563</v>
       </c>
+      <c r="W6" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="X6" s="9">
+        <v>2.3539637068800001</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>2.4079999999999999</v>
+      </c>
+      <c r="Z6" s="16">
+        <f>ABS(Y6-X6)/X6*100</f>
+        <v>2.295544870214707</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="AB6" s="23">
+        <f>ABS(AA6-X6)/X6*100</f>
+        <v>2.8022397578690872</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>2.8482385487699999</v>
+      </c>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="16">
+        <f>ABS(AD6-AC6)/AC6*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="15">
+        <f>ABS(AF6-AC6)/AC6*100</f>
+        <v>100</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>2.54206688421</v>
+      </c>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="16">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="15">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>0.9</v>
       </c>
@@ -3862,14 +4069,14 @@
         <v>2.1497999999999999</v>
       </c>
       <c r="E7" s="10">
-        <f>ABS(D7-C7)/C7*100</f>
+        <f t="shared" si="0"/>
         <v>0.69139863697164849</v>
       </c>
       <c r="F7" s="1">
         <v>2.1664500000000002</v>
       </c>
       <c r="G7" s="13">
-        <f>ABS(F7-C7)/C7*100</f>
+        <f t="shared" si="1"/>
         <v>1.471244105064311</v>
       </c>
       <c r="H7" s="9">
@@ -3879,14 +4086,14 @@
         <v>2.7606999999999902</v>
       </c>
       <c r="J7" s="16">
-        <f>ABS(I7-H7)/H7*100</f>
+        <f t="shared" si="2"/>
         <v>2.3198685266669448</v>
       </c>
       <c r="K7" s="2">
         <v>2.7316499999999899</v>
       </c>
       <c r="L7" s="15">
-        <f>ABS(K7-H7)/H7*100</f>
+        <f t="shared" si="3"/>
         <v>1.2431879091787315</v>
       </c>
       <c r="M7" s="9">
@@ -3896,18 +4103,64 @@
         <v>2.48199999999999</v>
       </c>
       <c r="O7" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.7835165565629447</v>
       </c>
       <c r="P7" s="2">
         <v>2.4719999999999902</v>
       </c>
       <c r="Q7" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.3613428395743821</v>
       </c>
+      <c r="W7" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1.5792516571799999</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1.5599999999999901</v>
+      </c>
+      <c r="Z7" s="16">
+        <f>ABS(Y7-X7)/X7*100</f>
+        <v>1.2190366932643724</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1.4232</v>
+      </c>
+      <c r="AB7" s="22">
+        <f>ABS(AA7-X7)/X7*100</f>
+        <v>9.8813673217006137</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>1.96991837764</v>
+      </c>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="16">
+        <f>ABS(AD7-AC7)/AC7*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="15">
+        <f>ABS(AF7-AC7)/AC7*100</f>
+        <v>100</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>1.7223281289900001</v>
+      </c>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="16">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="15">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>0.8</v>
       </c>
@@ -3918,14 +4171,14 @@
         <v>1.4124999999999901</v>
       </c>
       <c r="E8" s="10">
-        <f>ABS(D8-C8)/C8*100</f>
+        <f t="shared" si="0"/>
         <v>1.969561765455645</v>
       </c>
       <c r="F8" s="1">
         <v>1.4232</v>
       </c>
       <c r="G8" s="13">
-        <f>ABS(F8-C8)/C8*100</f>
+        <f t="shared" si="1"/>
         <v>1.2269595076782256</v>
       </c>
       <c r="H8" s="9">
@@ -3935,14 +4188,14 @@
         <v>1.8792</v>
       </c>
       <c r="J8" s="16">
-        <f>ABS(I8-H8)/H8*100</f>
+        <f t="shared" si="2"/>
         <v>0.21291321330337828</v>
       </c>
       <c r="K8" s="2">
         <v>1.86384999999999</v>
       </c>
       <c r="L8" s="15">
-        <f>ABS(K8-H8)/H8*100</f>
+        <f t="shared" si="3"/>
         <v>1.028011011396603</v>
       </c>
       <c r="M8" s="9">
@@ -3952,18 +4205,64 @@
         <v>1.63</v>
       </c>
       <c r="O8" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.0388480905908162</v>
       </c>
       <c r="P8" s="2">
         <v>1.62699999999999</v>
       </c>
       <c r="Q8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.85288702048482157</v>
       </c>
+      <c r="W8" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="X8" s="9">
+        <v>1.3833111549699999</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="Z8" s="19">
+        <f>ABS(Y8-X8)/X8*100</f>
+        <v>5.5438608121152058</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="AB8" s="21">
+        <f>ABS(AA8-X8)/X8*100</f>
+        <v>4.721364006597363</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>1.73728238132</v>
+      </c>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="16">
+        <f>ABS(AD8-AC8)/AC8*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="15">
+        <f>ABS(AF8-AC8)/AC8*100</f>
+        <v>100</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>1.5120437273</v>
+      </c>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="16">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="20">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>0.75</v>
       </c>
@@ -3974,14 +4273,14 @@
         <v>1.2052</v>
       </c>
       <c r="E9" s="3">
-        <f>ABS(D9-C9)/C9*100</f>
+        <f t="shared" si="0"/>
         <v>4.727505811843983</v>
       </c>
       <c r="F9" s="1">
         <v>1.2248000000000001</v>
       </c>
       <c r="G9" s="13">
-        <f>ABS(F9-C9)/C9*100</f>
+        <f t="shared" si="1"/>
         <v>3.178102487841441</v>
       </c>
       <c r="H9" s="9">
@@ -3991,14 +4290,14 @@
         <v>1.6425999999999901</v>
       </c>
       <c r="J9" s="16">
-        <f>ABS(I9-H9)/H9*100</f>
+        <f t="shared" si="2"/>
         <v>1.4121617907187229</v>
       </c>
       <c r="K9" s="2">
         <v>1.6393499999999901</v>
       </c>
       <c r="L9" s="15">
-        <f>ABS(K9-H9)/H9*100</f>
+        <f t="shared" si="3"/>
         <v>1.6072247848622538</v>
       </c>
       <c r="M9" s="9">
@@ -4008,18 +4307,64 @@
         <v>1.446</v>
       </c>
       <c r="O9" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.8954139391334133</v>
       </c>
       <c r="P9" s="2">
         <v>1.42099999999999</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.13373665802736587</v>
       </c>
+      <c r="W9" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="X9" s="9">
+        <v>1.03848529967</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1.02799999999999</v>
+      </c>
+      <c r="Z9" s="16">
+        <f>ABS(Y9-X9)/X9*100</f>
+        <v>1.0096724212987815</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0.91199999999999903</v>
+      </c>
+      <c r="AB9" s="14">
+        <f>ABS(AA9-X9)/X9*100</f>
+        <v>12.179787206443295</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>1.3130061286000001</v>
+      </c>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="16">
+        <f>ABS(AD9-AC9)/AC9*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="20">
+        <f>ABS(AF9-AC9)/AC9*100</f>
+        <v>100</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>1.1382417622400001</v>
+      </c>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="16">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="20">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>0.6</v>
       </c>
@@ -4030,14 +4375,14 @@
         <v>0.88269999999999904</v>
       </c>
       <c r="E10" s="3">
-        <f>ABS(D10-C10)/C10*100</f>
+        <f t="shared" si="0"/>
         <v>7.5639597270374477</v>
       </c>
       <c r="F10" s="1">
         <v>0.89924999999999899</v>
       </c>
       <c r="G10" s="1">
-        <f>ABS(F10-C10)/C10*100</f>
+        <f t="shared" si="1"/>
         <v>5.8308494217043476</v>
       </c>
       <c r="H10" s="9">
@@ -4047,14 +4392,14 @@
         <v>1.2343</v>
       </c>
       <c r="J10" s="16">
-        <f>ABS(I10-H10)/H10*100</f>
+        <f t="shared" si="2"/>
         <v>2.6587457153451135</v>
       </c>
       <c r="K10" s="2">
         <v>1.2237</v>
       </c>
       <c r="L10" s="15">
-        <f>ABS(K10-H10)/H10*100</f>
+        <f t="shared" si="3"/>
         <v>3.4946991265233818</v>
       </c>
       <c r="M10" s="9">
@@ -4064,18 +4409,64 @@
         <v>1.1039999999999901</v>
       </c>
       <c r="O10" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.8532416179064191</v>
       </c>
       <c r="P10" s="2">
         <v>1.0445</v>
       </c>
       <c r="Q10" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.6900263859563256</v>
       </c>
+      <c r="W10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X10" s="9">
+        <v>0.90257974655899997</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0.95999999999999897</v>
+      </c>
+      <c r="Z10" s="19">
+        <f>ABS(Y10-X10)/X10*100</f>
+        <v>6.36179281220394</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0.83599999999999897</v>
+      </c>
+      <c r="AB10" s="21">
+        <f>ABS(AA10-X10)/X10*100</f>
+        <v>7.3766054260390845</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>1.13978055533</v>
+      </c>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="16">
+        <f>ABS(AD10-AC10)/AC10*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="20">
+        <f>ABS(AF10-AC10)/AC10*100</f>
+        <v>100</v>
+      </c>
+      <c r="AH10" s="9">
+        <v>0.98946982154399998</v>
+      </c>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="20">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>0.5</v>
       </c>
@@ -4086,14 +4477,14 @@
         <v>0.75700000000000001</v>
       </c>
       <c r="E11" s="11">
-        <f>ABS(D11-C11)/C11*100</f>
+        <f t="shared" si="0"/>
         <v>9.0617557275628382</v>
       </c>
       <c r="F11" s="1">
         <v>0.76290000000000002</v>
       </c>
       <c r="G11" s="1">
-        <f>ABS(F11-C11)/C11*100</f>
+        <f t="shared" si="1"/>
         <v>8.3529900192307629</v>
       </c>
       <c r="H11" s="9">
@@ -4103,14 +4494,14 @@
         <v>1.0733999999999999</v>
       </c>
       <c r="J11" s="16">
-        <f>ABS(I11-H11)/H11*100</f>
+        <f t="shared" si="2"/>
         <v>2.8059857895024378</v>
       </c>
       <c r="K11" s="2">
         <v>1.0606499999999901</v>
       </c>
       <c r="L11" s="15">
-        <f>ABS(K11-H11)/H11*100</f>
+        <f t="shared" si="3"/>
         <v>3.9604703070958767</v>
       </c>
       <c r="M11" s="9">
@@ -4120,18 +4511,64 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="O11" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.4379321649023025</v>
       </c>
       <c r="P11" s="2">
         <v>0.90149999999999997</v>
       </c>
       <c r="Q11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.6293881200210762</v>
       </c>
+      <c r="W11" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="X11" s="9">
+        <v>0.80306930293699996</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="Z11" s="16">
+        <f>ABS(Y11-X11)/X11*100</f>
+        <v>1.1120705311905934</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="AB11" s="21">
+        <f>ABS(AA11-X11)/X11*100</f>
+        <v>5.3630866949447702</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>1.01070246703</v>
+      </c>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="19">
+        <f>ABS(AD11-AC11)/AC11*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="20">
+        <f>ABS(AF11-AC11)/AC11*100</f>
+        <v>100</v>
+      </c>
+      <c r="AH11" s="9">
+        <v>0.87999837455899999</v>
+      </c>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="20">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>0.4</v>
       </c>
@@ -4142,14 +4579,14 @@
         <v>0.68679999999999997</v>
       </c>
       <c r="E12" s="11">
-        <f>ABS(D12-C12)/C12*100</f>
+        <f t="shared" si="0"/>
         <v>12.603278733029057</v>
       </c>
       <c r="F12" s="1">
         <v>0.68479999999999897</v>
       </c>
       <c r="G12" s="14">
-        <f>ABS(F12-C12)/C12*100</f>
+        <f t="shared" si="1"/>
         <v>12.857782871838069</v>
       </c>
       <c r="H12" s="9">
@@ -4159,14 +4596,14 @@
         <v>0.94329999999999903</v>
       </c>
       <c r="J12" s="16">
-        <f>ABS(I12-H12)/H12*100</f>
+        <f t="shared" si="2"/>
         <v>3.9362466750350085</v>
       </c>
       <c r="K12" s="2">
         <v>0.93579999999999997</v>
       </c>
       <c r="L12" s="15">
-        <f>ABS(K12-H12)/H12*100</f>
+        <f t="shared" si="3"/>
         <v>4.7000314200123734</v>
       </c>
       <c r="M12" s="9">
@@ -4176,18 +4613,64 @@
         <v>0.80699999999999905</v>
       </c>
       <c r="O12" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.2136590806251406</v>
       </c>
       <c r="P12" s="2">
         <v>0.79799999999999904</v>
       </c>
       <c r="Q12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.293060652216683</v>
       </c>
+      <c r="W12" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0.69404701674799996</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="Z12" s="16">
+        <f>ABS(Y12-X12)/X12*100</f>
+        <v>0.29493920420426717</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0.627999999999999</v>
+      </c>
+      <c r="AB12" s="21">
+        <f>ABS(AA12-X12)/X12*100</f>
+        <v>9.5162165032375352</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>0.86727606848899996</v>
+      </c>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="19">
+        <f>ABS(AD12-AC12)/AC12*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="20">
+        <f>ABS(AF12-AC12)/AC12*100</f>
+        <v>100</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>0.759553238184</v>
+      </c>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="12">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>0.25</v>
       </c>
@@ -4198,14 +4681,14 @@
         <v>0.59</v>
       </c>
       <c r="E13" s="11">
-        <f>ABS(D13-C13)/C13*100</f>
+        <f t="shared" si="0"/>
         <v>13.209094419888604</v>
       </c>
       <c r="F13" s="1">
         <v>0.58794999999999997</v>
       </c>
       <c r="G13" s="14">
-        <f>ABS(F13-C13)/C13*100</f>
+        <f t="shared" si="1"/>
         <v>13.510656040972041</v>
       </c>
       <c r="H13" s="9">
@@ -4215,14 +4698,14 @@
         <v>0.80659999999999898</v>
       </c>
       <c r="J13" s="16">
-        <f>ABS(I13-H13)/H13*100</f>
+        <f t="shared" si="2"/>
         <v>4.5797375886588725</v>
       </c>
       <c r="K13" s="2">
         <v>0.80489999999999995</v>
       </c>
       <c r="L13" s="15">
-        <f>ABS(K13-H13)/H13*100</f>
+        <f t="shared" si="3"/>
         <v>4.7808464977825871</v>
       </c>
       <c r="M13" s="9">
@@ -4232,18 +4715,64 @@
         <v>0.68199999999999905</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.5061320472239936</v>
       </c>
       <c r="P13" s="2">
         <v>0.64599999999999902</v>
       </c>
       <c r="Q13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>10.494078156168193</v>
       </c>
+      <c r="W13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="X13" s="9">
+        <v>0.66494581331900005</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="Z13" s="16">
+        <f>ABS(Y13-X13)/X13*100</f>
+        <v>3.4670775000338141</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="AB13" s="21">
+        <f>ABS(AA13-X13)/X13*100</f>
+        <v>8.8647544113074215</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>0.82868420120499997</v>
+      </c>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="19">
+        <f>ABS(AD13-AC13)/AC13*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="20">
+        <f>ABS(AF13-AC13)/AC13*100</f>
+        <v>100</v>
+      </c>
+      <c r="AH13" s="9">
+        <v>0.72731814478599999</v>
+      </c>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3">
+        <f>ABS(AI13-AH13)/AH13*100</f>
+        <v>100</v>
+      </c>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="12">
+        <f>ABS(AK13-AH13)/AH13*100</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>0.2</v>
       </c>
@@ -4254,14 +4783,14 @@
         <v>0.54769999999999996</v>
       </c>
       <c r="E14" s="11">
-        <f>ABS(D14-C14)/C14*100</f>
+        <f t="shared" si="0"/>
         <v>12.913672749075362</v>
       </c>
       <c r="F14" s="1">
         <v>0.55079999999999996</v>
       </c>
       <c r="G14" s="14">
-        <f>ABS(F14-C14)/C14*100</f>
+        <f t="shared" si="1"/>
         <v>12.420761274768505</v>
       </c>
       <c r="H14" s="9">
@@ -4271,14 +4800,14 @@
         <v>0.77169999999999905</v>
       </c>
       <c r="J14" s="16">
-        <f>ABS(I14-H14)/H14*100</f>
+        <f t="shared" si="2"/>
         <v>4.5434290161984672</v>
       </c>
       <c r="K14" s="2">
         <v>0.76344999999999996</v>
       </c>
       <c r="L14" s="15">
-        <f>ABS(K14-H14)/H14*100</f>
+        <f t="shared" si="3"/>
         <v>5.5639249480583564</v>
       </c>
       <c r="M14" s="9">
@@ -4298,8 +4827,58 @@
         <f>ABS(P14-M14)/M14*100</f>
         <v>5.5956866821674094</v>
       </c>
+      <c r="W14" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="X14" s="9">
+        <v>0.614471377697</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="Z14" s="16">
+        <f>ABS(Y14-X14)/X14*100</f>
+        <v>1.7041278206067272</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AB14" s="22">
+        <f>ABS(AA14-X14)/X14*100</f>
+        <v>9.5157203116843263</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>0.76150528236500004</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="AE14" s="19">
+        <f>ABS(AD14-AC14)/AC14*100</f>
+        <v>9.7825608515337361</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="AG14" s="15">
+        <f>ABS(AF14-AC14)/AC14*100</f>
+        <v>3.2166182168726363</v>
+      </c>
+      <c r="AH14" s="9">
+        <v>0.67133097138999998</v>
+      </c>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="16">
+        <f>ABS(AI14-AH14)/AH14*100</f>
+        <v>100</v>
+      </c>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="15">
+        <f>ABS(AK14-AH14)/AH14*100</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>0.1</v>
       </c>
@@ -4310,14 +4889,14 @@
         <v>0.49879999999999902</v>
       </c>
       <c r="E15" s="11">
-        <f>ABS(D15-C15)/C15*100</f>
+        <f t="shared" si="0"/>
         <v>14.298838514808782</v>
       </c>
       <c r="F15" s="1">
         <v>0.497449999999999</v>
       </c>
       <c r="G15" s="14">
-        <f>ABS(F15-C15)/C15*100</f>
+        <f t="shared" si="1"/>
         <v>14.530788330376163</v>
       </c>
       <c r="H15" s="9">
@@ -4327,14 +4906,14 @@
         <v>0.71040000000000003</v>
       </c>
       <c r="J15" s="16">
-        <f>ABS(I15-H15)/H15*100</f>
+        <f t="shared" si="2"/>
         <v>4.5288430238088466</v>
       </c>
       <c r="K15" s="2">
         <v>0.71040000000000003</v>
       </c>
       <c r="L15" s="15">
-        <f>ABS(K15-H15)/H15*100</f>
+        <f t="shared" si="3"/>
         <v>4.5288430238088466</v>
       </c>
       <c r="M15" s="9">
@@ -4354,8 +4933,58 @@
         <f>ABS(P15-M15)/M15*100</f>
         <v>1.8747566537699651</v>
       </c>
+      <c r="W15" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="X15" s="18">
+        <v>0.57601260030276202</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="Z15" s="16">
+        <f>ABS(Y15-X15)/X15*100</f>
+        <v>1.386671002168985</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="AB15" s="14">
+        <f>ABS(AA15-X15)/X15*100</f>
+        <v>11.113055559742252</v>
+      </c>
+      <c r="AC15" s="18">
+        <v>0.71015932181069896</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AE15" s="19">
+        <f>ABS(AD15-AC15)/AC15*100</f>
+        <v>9.2712545153144728</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>0.748</v>
+      </c>
+      <c r="AG15" s="20">
+        <f>ABS(AF15-AC15)/AC15*100</f>
+        <v>5.3284772905350808</v>
+      </c>
+      <c r="AH15" s="18">
+        <v>0.62861207719619505</v>
+      </c>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3">
+        <f t="shared" ref="AJ15" si="8">ABS(AI15-AH15)/AH15*100</f>
+        <v>100</v>
+      </c>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="12">
+        <f t="shared" ref="AL15" si="9">ABS(AK15-AH15)/AH15*100</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>0.01</v>
       </c>
@@ -4366,14 +4995,14 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="E16" s="11">
-        <f>ABS(D16-C16)/C16*100</f>
+        <f t="shared" si="0"/>
         <v>11.214022499209932</v>
       </c>
       <c r="F16" s="1">
         <v>0.48</v>
       </c>
       <c r="G16" s="14">
-        <f>ABS(F16-C16)/C16*100</f>
+        <f t="shared" si="1"/>
         <v>12.12934185488818</v>
       </c>
       <c r="H16" s="9">
@@ -4383,14 +5012,14 @@
         <v>0.66969999999999996</v>
       </c>
       <c r="J16" s="16">
-        <f>ABS(I16-H16)/H16*100</f>
+        <f t="shared" si="2"/>
         <v>3.614600186326459</v>
       </c>
       <c r="K16" s="2">
         <v>0.66720000000000002</v>
       </c>
       <c r="L16" s="15">
-        <f>ABS(K16-H16)/H16*100</f>
+        <f t="shared" si="3"/>
         <v>3.9744083086710598</v>
       </c>
       <c r="M16" s="9">
@@ -4400,14 +5029,14 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.9362214085876088</v>
       </c>
       <c r="P16" s="2">
         <v>0.55649999999999999</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>7.1877319541736844</v>
       </c>
     </row>
